--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Pomc-Mc4r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Pomc-Mc4r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,13 +79,13 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>Pomc</t>
+  </si>
+  <si>
+    <t>Mc4r</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Pomc</t>
-  </si>
-  <si>
-    <t>Mc4r</t>
   </si>
 </sst>
 </file>
@@ -443,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,31 +516,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6419623333333333</v>
+        <v>1.703265666666667</v>
       </c>
       <c r="H2">
-        <v>1.925887</v>
+        <v>5.109797</v>
       </c>
       <c r="I2">
-        <v>0.928358882375427</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.928358882375427</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -549,28 +549,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.03919966666666667</v>
+        <v>0.006923666666666667</v>
       </c>
       <c r="N2">
-        <v>0.117599</v>
+        <v>0.020771</v>
       </c>
       <c r="O2">
-        <v>0.172457585485283</v>
+        <v>0.01563438526027703</v>
       </c>
       <c r="P2">
-        <v>0.172457585485283</v>
+        <v>0.01563438526027703</v>
       </c>
       <c r="Q2">
-        <v>0.02516470947922222</v>
+        <v>0.01179284372077778</v>
       </c>
       <c r="R2">
-        <v>0.226482385313</v>
+        <v>0.106135593487</v>
       </c>
       <c r="S2">
-        <v>0.160102531318282</v>
+        <v>0.01563438526027703</v>
       </c>
       <c r="T2">
-        <v>0.160102531318282</v>
+        <v>0.01563438526027703</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,185 +578,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6419623333333333</v>
+        <v>1.703265666666667</v>
       </c>
       <c r="H3">
-        <v>1.925887</v>
+        <v>5.109797</v>
       </c>
       <c r="I3">
-        <v>0.928358882375427</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.928358882375427</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.1881006666666667</v>
+        <v>0.435925</v>
       </c>
       <c r="N3">
-        <v>0.5643020000000001</v>
+        <v>1.307775</v>
       </c>
       <c r="O3">
-        <v>0.827542414514717</v>
+        <v>0.9843656147397229</v>
       </c>
       <c r="P3">
-        <v>0.827542414514717</v>
+        <v>0.9843656147397229</v>
       </c>
       <c r="Q3">
-        <v>0.1207535428748889</v>
+        <v>0.7424960857416666</v>
       </c>
       <c r="R3">
-        <v>1.086781885874</v>
+        <v>6.682464771675</v>
       </c>
       <c r="S3">
-        <v>0.768256351057145</v>
+        <v>0.9843656147397229</v>
       </c>
       <c r="T3">
-        <v>0.768256351057145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G4">
-        <v>0.04954</v>
-      </c>
-      <c r="H4">
-        <v>0.14862</v>
-      </c>
-      <c r="I4">
-        <v>0.07164111762457297</v>
-      </c>
-      <c r="J4">
-        <v>0.07164111762457297</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M4">
-        <v>0.03919966666666667</v>
-      </c>
-      <c r="N4">
-        <v>0.117599</v>
-      </c>
-      <c r="O4">
-        <v>0.172457585485283</v>
-      </c>
-      <c r="P4">
-        <v>0.172457585485283</v>
-      </c>
-      <c r="Q4">
-        <v>0.001941951486666667</v>
-      </c>
-      <c r="R4">
-        <v>0.01747756338</v>
-      </c>
-      <c r="S4">
-        <v>0.01235505416700101</v>
-      </c>
-      <c r="T4">
-        <v>0.01235505416700101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.04954</v>
-      </c>
-      <c r="H5">
-        <v>0.14862</v>
-      </c>
-      <c r="I5">
-        <v>0.07164111762457297</v>
-      </c>
-      <c r="J5">
-        <v>0.07164111762457297</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M5">
-        <v>0.1881006666666667</v>
-      </c>
-      <c r="N5">
-        <v>0.5643020000000001</v>
-      </c>
-      <c r="O5">
-        <v>0.827542414514717</v>
-      </c>
-      <c r="P5">
-        <v>0.827542414514717</v>
-      </c>
-      <c r="Q5">
-        <v>0.009318507026666667</v>
-      </c>
-      <c r="R5">
-        <v>0.08386656324000001</v>
-      </c>
-      <c r="S5">
-        <v>0.05928606345757196</v>
-      </c>
-      <c r="T5">
-        <v>0.05928606345757196</v>
+        <v>0.9843656147397229</v>
       </c>
     </row>
   </sheetData>
